--- a/dataDisplay/flaskapp/sums_models/analysis/extract/成果科抽取.xlsx
+++ b/dataDisplay/flaskapp/sums_models/analysis/extract/成果科抽取.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Technology_Bureau\dataDisplay\dataDisplay\flaskapp\sums_models\analysis\extract\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="110">
   <si>
     <t>项目编号</t>
   </si>
@@ -331,19 +336,29 @@
   </si>
   <si>
     <t>奖励经费(万元)</t>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>购置研发设备补助清单</t>
+  </si>
+  <si>
+    <t>认定级别</t>
+  </si>
+  <si>
+    <t>实际补助金额（万元）第一次</t>
+  </si>
+  <si>
+    <t>购置研发设备补助</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +370,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -362,6 +378,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -369,342 +386,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -727,255 +429,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,62 +451,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1333,33 +752,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="D99" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1396,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1413,12 +832,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1426,7 +845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,12 +859,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1453,7 +872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,12 +895,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1489,7 +908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,12 +931,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1525,7 +944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1548,12 +967,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1561,7 +980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1578,12 +997,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="H25" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1591,7 +1013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1614,12 +1036,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>7</v>
       </c>
@@ -1627,7 +1049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
@@ -1650,12 +1072,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D33" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1663,7 +1085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,12 +1108,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>9</v>
       </c>
@@ -1699,7 +1121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,12 +1144,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D41" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>10</v>
       </c>
@@ -1735,7 +1157,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="3:7">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1749,7 +1171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="3:4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1757,7 +1179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>11</v>
       </c>
@@ -1765,7 +1187,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1782,12 +1204,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>12</v>
       </c>
@@ -1795,7 +1217,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="3:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1809,12 +1231,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>13</v>
       </c>
@@ -1822,7 +1244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="3:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C56" s="1" t="s">
         <v>54</v>
       </c>
@@ -1836,12 +1258,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D57" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>14</v>
       </c>
@@ -1849,7 +1271,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="3:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C60" s="1" t="s">
         <v>57</v>
       </c>
@@ -1863,12 +1285,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D61" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>15</v>
       </c>
@@ -1876,7 +1298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="3:7">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
         <v>60</v>
       </c>
@@ -1887,12 +1309,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D65" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>16</v>
       </c>
@@ -1900,7 +1322,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="5:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E68" s="1" t="s">
         <v>63</v>
       </c>
@@ -1911,12 +1333,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="4:4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D69" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>17</v>
       </c>
@@ -1924,7 +1346,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="3:7">
+    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C72" s="1" t="s">
         <v>17</v>
       </c>
@@ -1938,12 +1360,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="4:4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D73" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>18</v>
       </c>
@@ -1951,7 +1373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="3:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
@@ -1965,12 +1387,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D77" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>19</v>
       </c>
@@ -1978,7 +1400,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="3:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C80" s="1" t="s">
         <v>70</v>
       </c>
@@ -1992,12 +1414,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D81" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>20</v>
       </c>
@@ -2005,7 +1427,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="3:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C84" s="1" t="s">
         <v>71</v>
       </c>
@@ -2019,12 +1441,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="4:4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D85" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>21</v>
       </c>
@@ -2032,7 +1454,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="3:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C88" s="1" t="s">
         <v>71</v>
       </c>
@@ -2046,12 +1468,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="4:4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D89" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>22</v>
       </c>
@@ -2059,7 +1481,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="3:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
         <v>70</v>
       </c>
@@ -2073,12 +1495,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="4:4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D93" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>23</v>
       </c>
@@ -2086,7 +1508,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="5:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E96" s="1" t="s">
         <v>43</v>
       </c>
@@ -2097,12 +1519,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="4:4">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D97" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>24</v>
       </c>
@@ -2110,7 +1532,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="5:7">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E100" s="1" t="s">
         <v>43</v>
       </c>
@@ -2121,12 +1543,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="4:4">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D101" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>25</v>
       </c>
@@ -2134,7 +1556,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="3:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C104" s="1" t="s">
         <v>17</v>
       </c>
@@ -2151,12 +1573,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="4:4">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D105" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>26</v>
       </c>
@@ -2164,7 +1586,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="3:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C108" s="1" t="s">
         <v>17</v>
       </c>
@@ -2181,12 +1603,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="4:4">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D109" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>27</v>
       </c>
@@ -2194,7 +1616,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="3:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C112" s="1" t="s">
         <v>17</v>
       </c>
@@ -2211,12 +1633,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="4:4">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D113" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="H113" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>28</v>
       </c>
@@ -2224,7 +1649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="2:8">
+    <row r="116" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B116" s="2"/>
       <c r="C116" s="1" t="s">
         <v>67</v>
@@ -2242,12 +1667,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="4:4">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D117" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>29</v>
       </c>
@@ -2255,7 +1680,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="3:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C120" s="1" t="s">
         <v>67</v>
       </c>
@@ -2272,12 +1697,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="4:4">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D121" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>30</v>
       </c>
@@ -2285,7 +1710,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="5:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E124" s="1" t="s">
         <v>90</v>
       </c>
@@ -2299,12 +1724,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="125" spans="4:4">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D125" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>31</v>
       </c>
@@ -2312,7 +1737,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="3:7">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C128" s="1" t="s">
         <v>17</v>
       </c>
@@ -2326,12 +1751,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="4:4">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D129" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>32</v>
       </c>
@@ -2339,7 +1764,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="132" spans="5:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E132" s="1" t="s">
         <v>96</v>
       </c>
@@ -2350,12 +1775,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="133" spans="4:4">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D133" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>33</v>
       </c>
@@ -2363,7 +1788,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="136" spans="3:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C136" s="1" t="s">
         <v>17</v>
       </c>
@@ -2380,12 +1805,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="4:4">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D137" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>34</v>
       </c>
@@ -2393,7 +1818,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="140" spans="3:7">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C140" s="1" t="s">
         <v>67</v>
       </c>
@@ -2407,12 +1832,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="4:4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D141" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>35</v>
       </c>
@@ -2420,7 +1845,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="3:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C144" s="1" t="s">
         <v>67</v>
       </c>
@@ -2437,48 +1862,66 @@
         <v>104</v>
       </c>
     </row>
-    <row r="145" spans="4:4">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D145" s="1" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>36</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D148" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C149" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/dataDisplay/flaskapp/sums_models/analysis/extract/成果科抽取.xlsx
+++ b/dataDisplay/flaskapp/sums_models/analysis/extract/成果科抽取.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="115">
   <si>
     <t>项目编号</t>
   </si>
@@ -348,10 +348,52 @@
     <t>认定级别</t>
   </si>
   <si>
-    <t>实际补助金额（万元）第一次</t>
-  </si>
-  <si>
     <t>购置研发设备补助</t>
+  </si>
+  <si>
+    <t>昆山市级研发机构</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州市级研发机构</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省级研发机构</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖项类别</t>
+  </si>
+  <si>
+    <t>奖励类别</t>
+  </si>
+  <si>
+    <r>
+      <t>实际补助金额(万元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一次</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -435,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,6 +495,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D99" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView tabSelected="1" topLeftCell="D134" workbookViewId="0">
+      <selection activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -775,7 +820,7 @@
     <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" customWidth="1"/>
+    <col min="10" max="10" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -803,7 +848,7 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -836,6 +881,9 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -863,6 +911,9 @@
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -899,6 +950,9 @@
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -931,12 +985,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>4</v>
       </c>
@@ -944,7 +1001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,12 +1024,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -980,7 +1040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,15 +1057,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1013,7 +1076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,12 +1099,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D29" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>7</v>
       </c>
@@ -1049,7 +1115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
@@ -1072,12 +1138,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D33" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1085,7 +1154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,12 +1177,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>9</v>
       </c>
@@ -1121,7 +1193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,12 +1216,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D41" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>10</v>
       </c>
@@ -1157,7 +1232,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1171,15 +1246,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J45" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>11</v>
       </c>
@@ -1187,7 +1265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1204,12 +1282,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>12</v>
       </c>
@@ -1217,7 +1298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1231,12 +1312,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J53" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>13</v>
       </c>
@@ -1244,7 +1328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C56" s="1" t="s">
         <v>54</v>
       </c>
@@ -1258,12 +1342,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D57" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J57" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>14</v>
       </c>
@@ -1271,7 +1358,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C60" s="1" t="s">
         <v>57</v>
       </c>
@@ -1285,12 +1372,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D61" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J61" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>15</v>
       </c>
@@ -1298,7 +1388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
         <v>60</v>
       </c>
@@ -1309,12 +1399,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D65" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J65" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>16</v>
       </c>
@@ -1322,7 +1415,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E68" s="1" t="s">
         <v>63</v>
       </c>
@@ -1332,13 +1425,16 @@
       <c r="G68" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D69" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>17</v>
       </c>
@@ -1346,7 +1442,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C72" s="1" t="s">
         <v>17</v>
       </c>
@@ -1359,13 +1455,16 @@
       <c r="G72" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D73" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>18</v>
       </c>
@@ -1373,7 +1472,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
@@ -1387,12 +1486,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D77" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J77" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>19</v>
       </c>
@@ -1400,7 +1502,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C80" s="1" t="s">
         <v>70</v>
       </c>
@@ -1414,12 +1516,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D81" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J81" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>20</v>
       </c>
@@ -1427,7 +1532,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C84" s="1" t="s">
         <v>71</v>
       </c>
@@ -1441,12 +1546,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D85" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J85" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>21</v>
       </c>
@@ -1454,7 +1562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C88" s="1" t="s">
         <v>71</v>
       </c>
@@ -1468,12 +1576,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D89" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J89" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>22</v>
       </c>
@@ -1481,7 +1592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
         <v>70</v>
       </c>
@@ -1495,12 +1606,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D93" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J93" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>23</v>
       </c>
@@ -1508,7 +1622,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E96" s="1" t="s">
         <v>43</v>
       </c>
@@ -1519,12 +1633,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D97" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J97" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>24</v>
       </c>
@@ -1532,7 +1649,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E100" s="1" t="s">
         <v>43</v>
       </c>
@@ -1543,12 +1660,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D101" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J101" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>25</v>
       </c>
@@ -1556,7 +1676,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C104" s="1" t="s">
         <v>17</v>
       </c>
@@ -1573,12 +1693,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D105" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J105" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>26</v>
       </c>
@@ -1586,7 +1709,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C108" s="1" t="s">
         <v>17</v>
       </c>
@@ -1603,12 +1726,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D109" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J109" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>27</v>
       </c>
@@ -1616,7 +1742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C112" s="1" t="s">
         <v>17</v>
       </c>
@@ -1633,15 +1759,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D113" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J113" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>28</v>
       </c>
@@ -1649,7 +1778,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B116" s="2"/>
       <c r="C116" s="1" t="s">
         <v>67</v>
@@ -1666,13 +1795,16 @@
       <c r="H116" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D117" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>29</v>
       </c>
@@ -1680,7 +1812,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C120" s="1" t="s">
         <v>67</v>
       </c>
@@ -1697,12 +1829,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D121" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J121" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>30</v>
       </c>
@@ -1710,7 +1845,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E124" s="1" t="s">
         <v>90</v>
       </c>
@@ -1724,12 +1859,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D125" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J125" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>31</v>
       </c>
@@ -1737,7 +1875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C128" s="1" t="s">
         <v>17</v>
       </c>
@@ -1751,12 +1889,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D129" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J129" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>32</v>
       </c>
@@ -1764,7 +1905,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E132" s="1" t="s">
         <v>96</v>
       </c>
@@ -1775,12 +1916,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D133" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J133" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>33</v>
       </c>
@@ -1788,7 +1932,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C136" s="1" t="s">
         <v>17</v>
       </c>
@@ -1805,12 +1949,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D137" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J137" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>34</v>
       </c>
@@ -1818,7 +1965,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C140" s="1" t="s">
         <v>67</v>
       </c>
@@ -1832,12 +1979,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D141" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J141" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>35</v>
       </c>
@@ -1845,7 +1995,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C144" s="1" t="s">
         <v>67</v>
       </c>
@@ -1862,12 +2012,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D145" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J145" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>36</v>
       </c>
@@ -1875,20 +2028,23 @@
         <v>106</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D148" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="H148" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C149" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C149" s="1" t="s">
-        <v>109</v>
+      <c r="J149" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/dataDisplay/flaskapp/sums_models/analysis/extract/成果科抽取.xlsx
+++ b/dataDisplay/flaskapp/sums_models/analysis/extract/成果科抽取.xlsx
@@ -477,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,9 +495,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D134" workbookViewId="0">
-      <selection activeCell="H148" sqref="H148"/>
+    <sheetView tabSelected="1" topLeftCell="D139" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -820,7 +817,7 @@
     <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -1316,7 +1313,7 @@
       <c r="D53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J53" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1346,7 +1343,7 @@
       <c r="D57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" s="5" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1376,7 +1373,7 @@
       <c r="D61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J61" s="5" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1425,7 +1422,7 @@
       <c r="G68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1455,7 +1452,7 @@
       <c r="G72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1795,7 +1792,7 @@
       <c r="H116" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" s="1" t="s">
         <v>113</v>
       </c>
     </row>
